--- a/SDC_Mission_Statements/mission_statements.xlsx
+++ b/SDC_Mission_Statements/mission_statements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marijkevandergeer/Documents/GitHub/SDC_Mission_Statements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marijkevandergeer/Documents/GitHub/dspg23census/SDC_Mission_Statements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA997D1-CD4E-6047-9F6A-7FD1DFA03EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D585A3-6EBD-E24D-9560-684000A9ADA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="30180" windowHeight="17820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="3380" windowWidth="32040" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text Mining" sheetId="7" r:id="rId1"/>
@@ -36,14 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="173">
+  <si>
+    <t>Notes</t>
+  </si>
   <si>
     <t>Alaska</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -56,13 +56,82 @@
     <t>Arizona</t>
   </si>
   <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
     <t>California</t>
   </si>
   <si>
     <t>Colorado</t>
   </si>
   <si>
-    <t>Arkansas</t>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>District of Colombia</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Nevada</t>
   </si>
   <si>
     <t>Link</t>
@@ -119,34 +188,22 @@
     <t>The primary source for Colorado population and demographic information. The State Demography Office provides population estimates and forecasts for Colorado’s regions, counties, and municipalities developed by the State Demography Office and the U.S. Census Bureau. You can access data visualizations, data spreadsheets, data lookup applications, data spreadsheets, data links, and technical documentation by topic or geography by clicking on one of the buttons on the left.</t>
   </si>
   <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
     <t>https://www.ctdata.org/census</t>
   </si>
   <si>
     <t>In 1978, the Census State Data Center (SDC) Program began as a cooperative agreement between the states and the U.S. Census Bureau. State Data Centers assist the Census Bureau by disseminating census and other federal statistics. As a Census State Data Center partner, CTData is the local resource to contact with questions about finding and interpreting census data. In addition to census data, we also make state public data available in an accessible format. As the CT Census State Data Center we: Provide press releases about data trends throughout Connecticut, Share tutorials on how to access census data online, Answer questions about census data, Publicize available datasets through our networks, Manage a statewide data portal with accessible data tools, Partner with local governments in maintaining proper boundary files at the Census Bureau, Advocate for accurate and timely data products</t>
   </si>
   <si>
-    <t>Delaware</t>
-  </si>
-  <si>
     <t>https://stateplanning.delaware.gov/demography/index.shtml</t>
   </si>
   <si>
     <t>The Delaware Census State Data Center is a network of state, local, academic and private sector partners organized under an agreement between the State of Delaware and the U.S. Census Bureau and working together to create, share, and disseminate demographic, economic and other data for Delaware.</t>
   </si>
   <si>
-    <t>District of Colombia</t>
-  </si>
-  <si>
     <t>https://planning.dc.gov/page/state-data-center</t>
   </si>
   <si>
     <t>The State Data Center (SDC) is a mandated function of the Office of Planning set in place by a memorandum of agreement between the Census Bureau and the District of Columbia government in 1978. The SDC is part of a network of 56 SDC lead organizations and approximately 1,800 affiliates. The mission of the SDC is to provide easy and effective access to the Census Bureau’s data and information. The main functions of the SDC are: program administration, data dissemination, data analyses, technical assistance and consultation, product development, and education and promotion of censuses and surveys.</t>
-  </si>
-  <si>
-    <t>Florida</t>
   </si>
   <si>
     <t>http://edr.state.fl.us/Content/state-data-center/index.cfm</t>
@@ -156,9 +213,6 @@
 </t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>https://opb.georgia.gov/about-us</t>
   </si>
   <si>
@@ -166,24 +220,12 @@
 Review the agencies’ annual operating budgets to ensure that spending plans comply with the approved appropriations act, sound fiscal stewardship, and the Governor’s goals; Develop the state’s strategic plan, outlining the Governor’s vision for the state and how agencies can best support that vision; Supply official demographic and statistical data about the state of Georgia</t>
   </si>
   <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
     <t>https://census.hawaii.gov/home/overview/</t>
   </si>
   <si>
     <t>The Hawaii State Data Center is a local source that distributes census data; assists the public in the use of census data by providing technical advice; educates the public by providing guides and sponsoring training on census data, products and tools; and maintains a network of affiliate organizations throughout the state.</t>
   </si>
   <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
     <t>https://www.in.gov/library/collections-and-services/isdc/</t>
   </si>
   <si>
@@ -193,25 +235,16 @@
     <t>Library</t>
   </si>
   <si>
-    <t>Iowa</t>
-  </si>
-  <si>
     <t>https://www.iowadatacenter.org/index.php/about/about</t>
   </si>
   <si>
     <t>The State Data Center is a unit of the State Library of Iowa. The mission of the State Data Center is to increase the availability of census data in Iowa and to help people use it. The State Data Center is an advocate for policies to improve census data about Iowa. To carry out our mission to the people of Iowa, the State Data Center provides: An official Web site of U.S. Census Bureau demographic, social, economic, and housing statistics about Iowa, Answers to quick data requests, Custom data tabulations, Thematic maps, Statistical profiles of Iowa communities and special population group, Consultations on appropriate uses of data, Referrals to quality data sources, Training on finding and using statistics about Iowa</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
     <t>https://ipsr.ku.edu/sdc/about.shtml</t>
   </si>
   <si>
     <t>As the SDC lead agency, IPSR will: Identify, recruit, and manage an affiliate network of nonprofit stakeholders in the state of Kansas who have a role in economic development efforts or otherwise use diverse economic and demographic data in their efforts; Identify data and training needs; Assist in training data users and affiliates; Provide feedback to the U.S. Census Bureau on products and data; Encourage participation by businesses, local governments, and the public in data collection efforts by the Census Bureau; Reprint, extract, reformat, analyze, or otherwise prepare appropriate subsets of Census data for redistribution to data users and affiliates;</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
   </si>
   <si>
     <t>http://ksdc.louisville.edu/</t>
@@ -221,46 +254,28 @@
 </t>
   </si>
   <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
     <t>https://www.maine.gov/dafs/economist/census-information</t>
   </si>
   <si>
     <t>The Maine State Data Center (SDC), led by the State Economist’s office, provides demographic and economic data for the state of Maine. The goal of this program, which is a partnership between the state and the U.S. Census Bureau, is to foster public access to data.</t>
   </si>
   <si>
-    <t>Maryland</t>
-  </si>
-  <si>
     <t>https://planning.maryland.gov/msdc/Pages/default.aspx</t>
   </si>
   <si>
     <t>The Maryland State Data Center (SDC) is an official partner with the U.S. Census Bureau. The Maryland Department of Planning coordinates the SDC program in Maryland. SDC monitors development trends, analyzes social, economic and other characteristics and prepares population, housing, employment, labor force, and income projections, which provide the baseline for planning for growth and development in the State.​</t>
   </si>
   <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
     <t>https://donahue.umass.edu/business-groups/economic-public-policy-research/massachusetts-state-data-center/about-us</t>
   </si>
   <si>
     <t>Staffed by members of the Economic and Public Policy Research group, the Massachusetts State Data Center is part of the national State Data Center (SDC) Network, a cooperative program between the states and the U.S. Census Bureau to make data locally accessible. The SDC program’s mission is to provide easy and efficient access to all U.S. Census Bureau data and information through agencies in each state. The SDCs are official sources of demographic, economic, and social statistics produced by the U. S. Census Bureau, such as the American Community Survey, Decennial Census, Longitudinal Employer-Household Dynamics, and County Business Patterns data sets. For those interested in accessing and using Census Bureau data, the SDC also provides training and technical assistance. The Massachusetts SDC maintains its own network of Massachusetts affiliates including state agencies, universities, libraries, and regional and local governments which it relies on to provide local knowledge and expertise. The State Data Center, as a part of the Economic &amp; Public Policy Research group, also produces a comprehensive economic overview of Massachusetts called the Socioeconomic Indicators Report for the Massachusetts State Treasurer’s Department of Debt Management, in support of bond financing initiatives. Please see our report archives for more.</t>
   </si>
   <si>
-    <t>Michigan</t>
-  </si>
-  <si>
     <t>https://milmi.org/Population/index</t>
   </si>
   <si>
     <t xml:space="preserve">The Michigan Center for Data and Analytics houses Michigan's state demographer. The state demographer is Michigan’s representative to the Federal-State Cooperative for Population Estimates, the main program at the U.S. Census Bureau through which Michigan has input into the estimates for total population and population by county, city, age, sex, and other factors. The state demographer also leads the Michigan Census Data Network, which provides input into the annual population estimates and the decennial census programs. The Michigan Census Data Network also maintains a group of stakeholders throughout the state that advise the public and assist in data dissemination, collection, and analysis. Beyond serving as a liaison between the state and the U.S. Census Bureau, the state demographer assists state, county, and local government officials; nonprofits; businesses; and the general public with their demographic data needs. The state demographer is available to assist with most data requests involving Census data and to make presentations regarding those data across Michigan. </t>
-  </si>
-  <si>
-    <t>Minnesota</t>
   </si>
   <si>
     <t>https://mn.gov/admin/demography/about/</t>
@@ -270,18 +285,12 @@
 </t>
   </si>
   <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
     <t>https://sdc.olemiss.edu/</t>
   </si>
   <si>
     <t>The State Data Center (SDC) of Mississippi is a collaborative partnership between the University of Mississippi, the State of Mississippi, and the US Census Bureau that provides: Outreach and education, Technical assistance with data requests and analysis, Networking between data users and the Census Bureau, Representation for Mississippi with the Federal-State Cooperative for Population Estimates</t>
   </si>
   <si>
-    <t>Missouri</t>
-  </si>
-  <si>
     <t>https://mcdc.missouri.edu/</t>
   </si>
   <si>
@@ -306,9 +315,6 @@
     <t>The Center for Public Affairs Research collaboratively produces and disseminates high-quality public scholarship about topics that impact the lives of Nebraskans. Ongoing projects from CPAR, include policy analyses for the Planning Committee of the Nebraska State Legislature, the Nebraska Rural Transit Project, governing.unomaha.edu, and designation by the U.S. Census Bureau as a statewide liaison for disseminating a range of data products.</t>
   </si>
   <si>
-    <t>Nevada</t>
-  </si>
-  <si>
     <t>https://nsla.nv.gov/state-data-center</t>
   </si>
   <si>
@@ -519,18 +525,12 @@
     <t>Our division’s main role is compiling all statistical information gathered by both the CNMI and U.S. Federal Government on the Northern Mariana Islands. CSD provides statistical information that includes the Decennial Census Reports, Economic Indicator Reports, CPI, and other surveys and censuses conducted over the years.</t>
   </si>
   <si>
-    <t>Puerto Rico</t>
-  </si>
-  <si>
     <t>https://estadisticas.pr/en/sobre-nosotros/mision-y-vision</t>
   </si>
   <si>
     <t xml:space="preserve">The Institute will be the leading entity in statistics. It will guarantee the country that it has complete, reliable statistics with rapid and universal access. It will inspire confidence, seriousness and prestige for its high methodological standards. It will objectively support government management, promote the use of universal norms and standards, and stimulate investigative capacity among the new generations of professionals. </t>
   </si>
   <si>
-    <t>Guam</t>
-  </si>
-  <si>
     <t>https://bsp.guam.gov/about-us/</t>
   </si>
   <si>
@@ -543,16 +543,22 @@
     <t>Mission_Statement_Status</t>
   </si>
   <si>
-    <t>Mission_Statment_Text</t>
+    <t>Mission_Statement_Text</t>
+  </si>
+  <si>
+    <t>Statement_Type</t>
   </si>
   <si>
     <t>Host_Type</t>
   </si>
   <si>
-    <t>Statement_Type</t>
-  </si>
-  <si>
-    <t>Not listed</t>
+    <t>Coordinating</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>State</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18F753C-E520-4D1C-86B4-18B0722A4CFE}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1020,30 +1026,36 @@
     <col min="3" max="3" width="33" style="2" customWidth="1"/>
     <col min="4" max="4" width="45.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17" style="2" customWidth="1"/>
+    <col min="6" max="7" width="17" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="341.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="341.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1051,39 +1063,45 @@
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1091,1041 +1109,1197 @@
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="224" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="272" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="240" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="256" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="B12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="96" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="224" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="272" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="192" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="240" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="256" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="96" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="B13" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="272" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="224" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="304" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="304" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="335" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="128" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="144" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="335" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="128" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="144" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="G27" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G29" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+      <c r="G30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G32" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="272" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="272" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G35" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G37" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="80" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="208" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="208" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="256" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G39" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="256" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G40" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="96" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="160" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="160" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G46" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="192" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G49" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G50" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="224" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G51" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="224" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G52" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="144" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="G53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="112" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="128" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="64" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>162</v>
+        <v>29</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>3</v>
@@ -2137,13 +2311,16 @@
         <v>164</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>165</v>
       </c>
@@ -2151,16 +2328,19 @@
         <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>171</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2221,12 +2401,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a2657dd-b8a5-4c99-8d51-b0b9d254c989">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="5ba80a41-9917-4a22-8f13-cb051ddce64c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2479,20 +2661,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a2657dd-b8a5-4c99-8d51-b0b9d254c989">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="5ba80a41-9917-4a22-8f13-cb051ddce64c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E44FD3-7D88-4850-9B76-F3634CDEB4C9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AD8265B-FEF6-46EE-906E-B35BD4082CB1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7a2657dd-b8a5-4c99-8d51-b0b9d254c989"/>
+    <ds:schemaRef ds:uri="5ba80a41-9917-4a22-8f13-cb051ddce64c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2517,12 +2700,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9AD8265B-FEF6-46EE-906E-B35BD4082CB1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E44FD3-7D88-4850-9B76-F3634CDEB4C9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="7a2657dd-b8a5-4c99-8d51-b0b9d254c989"/>
-    <ds:schemaRef ds:uri="5ba80a41-9917-4a22-8f13-cb051ddce64c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>